--- a/mbs-perturbation/mega/svm/smote/mega-svm-sigmoid-smote-results.xlsx
+++ b/mbs-perturbation/mega/svm/smote/mega-svm-sigmoid-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5190311418685121</v>
+        <v>0.5016501650165016</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8064516129032258</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="D2" t="n">
-        <v>0.631578947368421</v>
+        <v>0.621676891615542</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6820875245693143</v>
+        <v>0.4741444097583536</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8608695652173913</v>
+        <v>0.8067226890756303</v>
       </c>
       <c r="C3" t="n">
-        <v>0.532258064516129</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6578073089700998</v>
+        <v>0.6295081967213115</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7351861486877096</v>
+        <v>0.708015377500289</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8270676691729323</v>
+        <v>0.8402777777777778</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5913978494623656</v>
+        <v>0.6505376344086021</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6896551724137931</v>
+        <v>0.7333333333333334</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6682564458318883</v>
+        <v>0.7504624812117008</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7947019867549668</v>
+        <v>0.8920863309352518</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7121661721068249</v>
+        <v>0.763076923076923</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7976169718105202</v>
+        <v>0.7698924731182796</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9044117647058824</v>
+        <v>0.483271375464684</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6648648648648648</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7663551401869159</v>
+        <v>0.5726872246696035</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7213891310665503</v>
+        <v>0.6391746585294972</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7812164255439369</v>
+        <v>0.7048016676539691</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6480267364138331</v>
+        <v>0.6706480674222609</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6915125482092109</v>
+        <v>0.6640565138833426</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7209072443931965</v>
+        <v>0.6683378800236242</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/mega/svm/smote/mega-svm-sigmoid-smote-results.xlsx
+++ b/mbs-perturbation/mega/svm/smote/mega-svm-sigmoid-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5016501650165016</v>
+        <v>0.4869888475836431</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8172043010752689</v>
+        <v>0.7751479289940828</v>
       </c>
       <c r="D2" t="n">
-        <v>0.621676891615542</v>
+        <v>0.5981735159817351</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4741444097583536</v>
+        <v>0.4201883687545954</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8067226890756303</v>
+        <v>0.6864864864864865</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5161290322580645</v>
+        <v>0.7514792899408284</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6295081967213115</v>
+        <v>0.7175141242937854</v>
       </c>
       <c r="E3" t="n">
-        <v>0.708015377500289</v>
+        <v>0.7722243618920906</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8402777777777778</v>
+        <v>0.844311377245509</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6505376344086021</v>
+        <v>0.834319526627219</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7504624812117008</v>
+        <v>0.8863485172087812</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8920863309352518</v>
+        <v>0.9921259842519685</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7455621301775148</v>
       </c>
       <c r="D5" t="n">
-        <v>0.763076923076923</v>
+        <v>0.8513513513513514</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7698924731182796</v>
+        <v>0.8864885683274395</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.483271375464684</v>
+        <v>0.643979057591623</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7027027027027027</v>
+        <v>0.727810650887574</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5726872246696035</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6391746585294972</v>
+        <v>0.7556458107209132</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7048016676539691</v>
+        <v>0.7307783506318459</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6706480674222609</v>
+        <v>0.7668639053254438</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6640565138833426</v>
+        <v>0.7379316078491838</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6683378800236242</v>
+        <v>0.744179125380764</v>
       </c>
     </row>
   </sheetData>
